--- a/Code/Results/Cases/Case_0_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_149/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.048500057630303</v>
+        <v>13.06314679895733</v>
       </c>
       <c r="D2">
-        <v>4.481687981812559</v>
+        <v>3.621259098539409</v>
       </c>
       <c r="E2">
-        <v>7.139147609839325</v>
+        <v>13.09130027399132</v>
       </c>
       <c r="F2">
-        <v>68.71685450622239</v>
+        <v>76.22404913125168</v>
       </c>
       <c r="G2">
-        <v>2.170325963986163</v>
+        <v>3.883766919405143</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.242117790442052</v>
+        <v>13.10892412913287</v>
       </c>
       <c r="K2">
-        <v>24.53346648166382</v>
+        <v>31.4627909636547</v>
       </c>
       <c r="L2">
-        <v>4.618449834227715</v>
+        <v>9.132339507478726</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.75370430865326</v>
+        <v>13.06387408571281</v>
       </c>
       <c r="D3">
-        <v>4.336587379118479</v>
+        <v>3.566338061518021</v>
       </c>
       <c r="E3">
-        <v>7.113142500405933</v>
+        <v>13.13103634300009</v>
       </c>
       <c r="F3">
-        <v>65.99811247718245</v>
+        <v>75.74530099706223</v>
       </c>
       <c r="G3">
-        <v>2.187664257819014</v>
+        <v>3.889386187930529</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.178356136874358</v>
+        <v>13.12548267589665</v>
       </c>
       <c r="K3">
-        <v>23.31306240144534</v>
+        <v>31.39887296689587</v>
       </c>
       <c r="L3">
-        <v>4.683115569091735</v>
+        <v>9.159109560404513</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.578043785348239</v>
+        <v>13.06745735867809</v>
       </c>
       <c r="D4">
-        <v>4.248323846940981</v>
+        <v>3.531829946880816</v>
       </c>
       <c r="E4">
-        <v>7.102817244338127</v>
+        <v>13.15774147947367</v>
       </c>
       <c r="F4">
-        <v>64.3445563145206</v>
+        <v>75.4622248886846</v>
       </c>
       <c r="G4">
-        <v>2.198435098392817</v>
+        <v>3.893007898387516</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.144135230282986</v>
+        <v>13.13731426532832</v>
       </c>
       <c r="K4">
-        <v>22.56625970480539</v>
+        <v>31.36984443130212</v>
       </c>
       <c r="L4">
-        <v>4.723778913069932</v>
+        <v>9.17645863598349</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.507799775885994</v>
+        <v>13.06970530709803</v>
       </c>
       <c r="D5">
-        <v>4.212508199701772</v>
+        <v>3.517573406734413</v>
       </c>
       <c r="E5">
-        <v>7.099969166913243</v>
+        <v>13.16920425839003</v>
       </c>
       <c r="F5">
-        <v>63.67456291152742</v>
+        <v>75.34964758521664</v>
       </c>
       <c r="G5">
-        <v>2.202863574614437</v>
+        <v>3.89452709535095</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.131359249483975</v>
+        <v>13.142553537913</v>
       </c>
       <c r="K5">
-        <v>22.26273328846292</v>
+        <v>31.3605897277458</v>
       </c>
       <c r="L5">
-        <v>4.740615270443421</v>
+        <v>9.183758915549078</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.496216762455935</v>
+        <v>13.07012611694119</v>
       </c>
       <c r="D6">
-        <v>4.20656875749621</v>
+        <v>3.515194493927039</v>
       </c>
       <c r="E6">
-        <v>7.099576709276007</v>
+        <v>13.17114269072114</v>
       </c>
       <c r="F6">
-        <v>63.56354242512617</v>
+        <v>75.33112319659654</v>
       </c>
       <c r="G6">
-        <v>2.203601503279017</v>
+        <v>3.894781979342082</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.129306489948554</v>
+        <v>13.14344872644542</v>
       </c>
       <c r="K6">
-        <v>22.21238801891719</v>
+        <v>31.35920859793114</v>
       </c>
       <c r="L6">
-        <v>4.743427655608769</v>
+        <v>9.184985066385979</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.577091026188622</v>
+        <v>13.06748448740192</v>
       </c>
       <c r="D7">
-        <v>4.247840275596563</v>
+        <v>3.53163845982154</v>
       </c>
       <c r="E7">
-        <v>7.102773404483241</v>
+        <v>13.15789372108436</v>
       </c>
       <c r="F7">
-        <v>64.33550503731172</v>
+        <v>75.4606953279562</v>
       </c>
       <c r="G7">
-        <v>2.198494653678816</v>
+        <v>3.893028211131221</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.143958282868583</v>
+        <v>13.13738323334032</v>
       </c>
       <c r="K7">
-        <v>22.56216270772039</v>
+        <v>31.36970918926045</v>
       </c>
       <c r="L7">
-        <v>4.724004867459815</v>
+        <v>9.176556155901169</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.945737737342773</v>
+        <v>13.06274604471843</v>
       </c>
       <c r="D8">
-        <v>4.431448937575246</v>
+        <v>3.60248763727524</v>
       </c>
       <c r="E8">
-        <v>7.12897299120473</v>
+        <v>13.10452250575586</v>
       </c>
       <c r="F8">
-        <v>67.7760394534272</v>
+        <v>76.05674660626244</v>
       </c>
       <c r="G8">
-        <v>2.176283265157872</v>
+        <v>3.885668981960449</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.219065589785506</v>
+        <v>13.11428757892843</v>
       </c>
       <c r="K8">
-        <v>24.11221423555873</v>
+        <v>31.43863550336361</v>
       </c>
       <c r="L8">
-        <v>4.640563474037205</v>
+        <v>9.141381119529832</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>9.712231831347671</v>
+        <v>13.07837255258504</v>
       </c>
       <c r="D9">
-        <v>4.801130122502648</v>
+        <v>3.735033711727678</v>
       </c>
       <c r="E9">
-        <v>7.228066806362755</v>
+        <v>13.01816326036257</v>
       </c>
       <c r="F9">
-        <v>74.66331121363588</v>
+        <v>77.30980883611255</v>
       </c>
       <c r="G9">
-        <v>2.133307808298618</v>
+        <v>3.872588558846667</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.40900536173891</v>
+        <v>13.08223912938144</v>
       </c>
       <c r="K9">
-        <v>27.17050048068641</v>
+        <v>31.65450765010221</v>
       </c>
       <c r="L9">
-        <v>4.483250038893919</v>
+        <v>9.079594285834306</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.30555209995942</v>
+        <v>13.1050633227541</v>
       </c>
       <c r="D10">
-        <v>5.083909644277817</v>
+        <v>3.828330535261768</v>
       </c>
       <c r="E10">
-        <v>7.334651564919989</v>
+        <v>12.96586813488159</v>
       </c>
       <c r="F10">
-        <v>79.84925969962804</v>
+        <v>78.27870304998308</v>
       </c>
       <c r="G10">
-        <v>2.101399604434334</v>
+        <v>3.86378874871367</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.580283740918551</v>
+        <v>13.06681314207211</v>
       </c>
       <c r="K10">
-        <v>29.43710076972705</v>
+        <v>31.8616469017022</v>
       </c>
       <c r="L10">
-        <v>4.369383847787763</v>
+        <v>9.038519312312836</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.58357155039842</v>
+        <v>13.12050375988957</v>
       </c>
       <c r="D11">
-        <v>5.21656498017289</v>
+        <v>3.869848694437065</v>
       </c>
       <c r="E11">
-        <v>7.39174730524028</v>
+        <v>12.94449871272491</v>
       </c>
       <c r="F11">
-        <v>82.25153657336151</v>
+        <v>78.72922663195736</v>
       </c>
       <c r="G11">
-        <v>2.086614208679664</v>
+        <v>3.85995860180809</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.666674071190831</v>
+        <v>13.06156828158572</v>
       </c>
       <c r="K11">
-        <v>30.61968695019117</v>
+        <v>31.9662211122077</v>
       </c>
       <c r="L11">
-        <v>4.317349621931886</v>
+        <v>9.020757518118891</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.69021754801758</v>
+        <v>13.12682380226268</v>
       </c>
       <c r="D12">
-        <v>5.267549669465533</v>
+        <v>3.885434669619085</v>
       </c>
       <c r="E12">
-        <v>7.41473746468241</v>
+        <v>12.93675459206538</v>
       </c>
       <c r="F12">
-        <v>83.16936049762846</v>
+        <v>78.90116509074612</v>
       </c>
       <c r="G12">
-        <v>2.080955506643737</v>
+        <v>3.858532868959269</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.700771841001133</v>
+        <v>13.05983777947897</v>
       </c>
       <c r="K12">
-        <v>31.08306331689468</v>
+        <v>32.00728735274014</v>
       </c>
       <c r="L12">
-        <v>4.297547652039144</v>
+        <v>9.014163298518332</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.66718471511853</v>
+        <v>13.12544165227967</v>
       </c>
       <c r="D13">
-        <v>5.256532572265559</v>
+        <v>3.882084053199524</v>
       </c>
       <c r="E13">
-        <v>7.409722840101201</v>
+        <v>12.93840694834511</v>
       </c>
       <c r="F13">
-        <v>82.97129145212641</v>
+        <v>78.86407683575189</v>
       </c>
       <c r="G13">
-        <v>2.082177254135616</v>
+        <v>3.85883883254319</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.693363724514191</v>
+        <v>13.06019909437904</v>
       </c>
       <c r="K13">
-        <v>30.98329313840695</v>
+        <v>31.9983781584561</v>
       </c>
       <c r="L13">
-        <v>4.301817877685054</v>
+        <v>9.015577636364721</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>10.59231660427737</v>
+        <v>13.12101424105609</v>
       </c>
       <c r="D14">
-        <v>5.22074332211271</v>
+        <v>3.871133707137484</v>
       </c>
       <c r="E14">
-        <v>7.393610428959533</v>
+        <v>12.9438546243027</v>
       </c>
       <c r="F14">
-        <v>82.32687020421655</v>
+        <v>78.7433457677533</v>
       </c>
       <c r="G14">
-        <v>2.086149999278343</v>
+        <v>3.859840812858287</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.66945051274017</v>
+        <v>13.0614207852206</v>
       </c>
       <c r="K14">
-        <v>30.65782273250969</v>
+        <v>31.96957040216479</v>
       </c>
       <c r="L14">
-        <v>4.315722877040954</v>
+        <v>9.020212372234344</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>10.54664275862257</v>
+        <v>13.11836388841023</v>
       </c>
       <c r="D15">
-        <v>5.198925053478016</v>
+        <v>3.864408490179201</v>
       </c>
       <c r="E15">
-        <v>7.383923781901511</v>
+        <v>12.94723680609975</v>
       </c>
       <c r="F15">
-        <v>81.93327067263667</v>
+        <v>78.66956623337711</v>
       </c>
       <c r="G15">
-        <v>2.088574930977493</v>
+        <v>3.860457760136144</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.654988668762281</v>
+        <v>13.06220241551962</v>
       </c>
       <c r="K15">
-        <v>30.45836598973036</v>
+        <v>31.9521150909693</v>
       </c>
       <c r="L15">
-        <v>4.324225228143136</v>
+        <v>9.023068414591478</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>10.28756162154244</v>
+        <v>13.10412053383895</v>
       </c>
       <c r="D16">
-        <v>5.07533501703518</v>
+        <v>3.825598365066702</v>
       </c>
       <c r="E16">
-        <v>7.331104097062137</v>
+        <v>12.96731337465447</v>
       </c>
       <c r="F16">
-        <v>79.69328484080258</v>
+        <v>78.2494509484946</v>
       </c>
       <c r="G16">
-        <v>2.102358741732622</v>
+        <v>3.864042519985539</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.574821793093564</v>
+        <v>13.06719163640393</v>
       </c>
       <c r="K16">
-        <v>29.36933959086184</v>
+        <v>31.85501913648792</v>
       </c>
       <c r="L16">
-        <v>4.372774512724542</v>
+        <v>9.03969858335306</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>10.13082274707875</v>
+        <v>13.09622680876096</v>
       </c>
       <c r="D17">
-        <v>5.000656139312055</v>
+        <v>3.80155079219905</v>
       </c>
       <c r="E17">
-        <v>7.300991528427931</v>
+        <v>12.98024952012209</v>
       </c>
       <c r="F17">
-        <v>78.33136791520545</v>
+        <v>77.99417713676957</v>
       </c>
       <c r="G17">
-        <v>2.110731955031822</v>
+        <v>3.866285798967959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.527919640926649</v>
+        <v>13.07070687132839</v>
       </c>
       <c r="K17">
-        <v>28.77662981113328</v>
+        <v>31.79808922028671</v>
       </c>
       <c r="L17">
-        <v>4.402456232212844</v>
+        <v>9.050136450739169</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>10.04141898426158</v>
+        <v>13.09199713713487</v>
       </c>
       <c r="D18">
-        <v>4.958068461596271</v>
+        <v>3.787632573848172</v>
       </c>
       <c r="E18">
-        <v>7.284472801165354</v>
+        <v>12.98791781865298</v>
       </c>
       <c r="F18">
-        <v>77.55194494437475</v>
+        <v>77.84827424944537</v>
       </c>
       <c r="G18">
-        <v>2.115524062559671</v>
+        <v>3.867592363167665</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.501728857536516</v>
+        <v>13.072895536058</v>
       </c>
       <c r="K18">
-        <v>28.43656180033232</v>
+        <v>31.76631985553207</v>
       </c>
       <c r="L18">
-        <v>4.419510683921794</v>
+        <v>9.056227012126056</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.01127196012163</v>
+        <v>13.09061841836241</v>
       </c>
       <c r="D19">
-        <v>4.943707184651213</v>
+        <v>3.782905318632811</v>
       </c>
       <c r="E19">
-        <v>7.27901387084913</v>
+        <v>12.99055329119515</v>
       </c>
       <c r="F19">
-        <v>77.28866911283136</v>
+        <v>77.79903478960317</v>
       </c>
       <c r="G19">
-        <v>2.11714304092323</v>
+        <v>3.868037547367574</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.492991635305049</v>
+        <v>13.07366520464232</v>
       </c>
       <c r="K19">
-        <v>28.32154772227156</v>
+        <v>31.75573139979746</v>
       </c>
       <c r="L19">
-        <v>4.425283719082965</v>
+        <v>9.058304140260432</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.14742920004774</v>
+        <v>13.09703497210311</v>
       </c>
       <c r="D20">
-        <v>5.008566868227271</v>
+        <v>3.804119694017928</v>
       </c>
       <c r="E20">
-        <v>7.304113271519482</v>
+        <v>12.97884887176218</v>
       </c>
       <c r="F20">
-        <v>78.47592900163239</v>
+        <v>78.02125635032495</v>
       </c>
       <c r="G20">
-        <v>2.109843227358539</v>
+        <v>3.866045313688475</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.532830010905309</v>
+        <v>13.07031540057378</v>
       </c>
       <c r="K20">
-        <v>28.83963316840735</v>
+        <v>31.80404872291805</v>
       </c>
       <c r="L20">
-        <v>4.399298812271932</v>
+        <v>9.049016327487253</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>10.61426816196557</v>
+        <v>13.12230185192189</v>
       </c>
       <c r="D21">
-        <v>5.231233512776154</v>
+        <v>3.87435380732353</v>
       </c>
       <c r="E21">
-        <v>7.398304692450957</v>
+        <v>12.94224506448859</v>
       </c>
       <c r="F21">
-        <v>82.51591310934232</v>
+        <v>78.7787717488348</v>
       </c>
       <c r="G21">
-        <v>2.084984921274322</v>
+        <v>3.859545839317395</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.676435358778384</v>
+        <v>13.06105500210822</v>
       </c>
       <c r="K21">
-        <v>30.75343936226325</v>
+        <v>31.97799232780406</v>
       </c>
       <c r="L21">
-        <v>4.311641873594072</v>
+        <v>9.018847469279814</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>10.92748555213161</v>
+        <v>13.14157181969496</v>
       </c>
       <c r="D22">
-        <v>5.381250978730828</v>
+        <v>3.91946142002311</v>
       </c>
       <c r="E22">
-        <v>7.467927630145669</v>
+        <v>12.92035087707505</v>
       </c>
       <c r="F22">
-        <v>85.20506906184389</v>
+        <v>79.2815987153362</v>
       </c>
       <c r="G22">
-        <v>2.0683765797467</v>
+        <v>3.855441701960193</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.778459298195154</v>
+        <v>13.05649301692967</v>
       </c>
       <c r="K22">
-        <v>32.10156502534179</v>
+        <v>32.10020932115278</v>
       </c>
       <c r="L22">
-        <v>4.253742551576488</v>
+        <v>8.999898064841522</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.759487654048</v>
+        <v>13.131035375886</v>
       </c>
       <c r="D23">
-        <v>5.300703497079681</v>
+        <v>3.895460387672516</v>
       </c>
       <c r="E23">
-        <v>7.429979822023816</v>
+        <v>12.93185059600038</v>
       </c>
       <c r="F23">
-        <v>83.76454157868675</v>
+        <v>79.01254542755618</v>
       </c>
       <c r="G23">
-        <v>2.077282134869137</v>
+        <v>3.857619082206933</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.723195252704876</v>
+        <v>13.05879124691539</v>
       </c>
       <c r="K23">
-        <v>31.38212931793495</v>
+        <v>32.03420659346747</v>
       </c>
       <c r="L23">
-        <v>4.284725385991328</v>
+        <v>9.009941805205305</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.13991923297141</v>
+        <v>13.09666864034471</v>
       </c>
       <c r="D24">
-        <v>5.004989361819444</v>
+        <v>3.80295858276552</v>
       </c>
       <c r="E24">
-        <v>7.302699469764617</v>
+        <v>12.9794813849511</v>
       </c>
       <c r="F24">
-        <v>78.4105619789152</v>
+        <v>78.00901116192482</v>
       </c>
       <c r="G24">
-        <v>2.110245087415143</v>
+        <v>3.866153984511685</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.53060763410982</v>
+        <v>13.07049186218049</v>
       </c>
       <c r="K24">
-        <v>28.81114725583154</v>
+        <v>31.80135143874587</v>
       </c>
       <c r="L24">
-        <v>4.400726308239459</v>
+        <v>9.049522455762059</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.499950952556262</v>
+        <v>13.07147380743333</v>
       </c>
       <c r="D25">
-        <v>4.699608976767006</v>
+        <v>3.69988042661816</v>
       </c>
       <c r="E25">
-        <v>7.195705022523631</v>
+        <v>13.0395668315569</v>
       </c>
       <c r="F25">
-        <v>72.7820073245834</v>
+        <v>76.96210747347912</v>
       </c>
       <c r="G25">
-        <v>2.144935369850268</v>
+        <v>3.875983891998546</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.352515256716481</v>
+        <v>13.08948641723871</v>
       </c>
       <c r="K25">
-        <v>26.34084889407944</v>
+        <v>31.58752571443546</v>
       </c>
       <c r="L25">
-        <v>4.525330390772195</v>
+        <v>9.095546025670108</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_149/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_149/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>13.06314679895733</v>
+        <v>9.048500057630315</v>
       </c>
       <c r="D2">
-        <v>3.621259098539409</v>
+        <v>4.481687981812545</v>
       </c>
       <c r="E2">
-        <v>13.09130027399132</v>
+        <v>7.139147609839504</v>
       </c>
       <c r="F2">
-        <v>76.22404913125168</v>
+        <v>68.71685450622257</v>
       </c>
       <c r="G2">
-        <v>3.883766919405143</v>
+        <v>2.170325963986298</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.10892412913287</v>
+        <v>8.24211779044219</v>
       </c>
       <c r="K2">
-        <v>31.4627909636547</v>
+        <v>24.53346648166399</v>
       </c>
       <c r="L2">
-        <v>9.132339507478726</v>
+        <v>4.618449834227873</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>13.06387408571281</v>
+        <v>8.753704308653306</v>
       </c>
       <c r="D3">
-        <v>3.566338061518021</v>
+        <v>4.336587379118479</v>
       </c>
       <c r="E3">
-        <v>13.13103634300009</v>
+        <v>7.113142500405881</v>
       </c>
       <c r="F3">
-        <v>75.74530099706223</v>
+        <v>65.99811247718249</v>
       </c>
       <c r="G3">
-        <v>3.889386187930529</v>
+        <v>2.187664257818885</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>13.12548267589665</v>
+        <v>8.178356136874324</v>
       </c>
       <c r="K3">
-        <v>31.39887296689587</v>
+        <v>23.31306240144541</v>
       </c>
       <c r="L3">
-        <v>9.159109560404513</v>
+        <v>4.683115569091642</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>13.06745735867809</v>
+        <v>8.57804378534815</v>
       </c>
       <c r="D4">
-        <v>3.531829946880816</v>
+        <v>4.248323846941161</v>
       </c>
       <c r="E4">
-        <v>13.15774147947367</v>
+        <v>7.102817244338095</v>
       </c>
       <c r="F4">
-        <v>75.4622248886846</v>
+        <v>64.34455631452066</v>
       </c>
       <c r="G4">
-        <v>3.893007898387516</v>
+        <v>2.198435098392955</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13.13731426532832</v>
+        <v>8.144135230283016</v>
       </c>
       <c r="K4">
-        <v>31.36984443130212</v>
+        <v>22.56625970480536</v>
       </c>
       <c r="L4">
-        <v>9.17645863598349</v>
+        <v>4.723778913069935</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>13.06970530709803</v>
+        <v>8.507799775885681</v>
       </c>
       <c r="D5">
-        <v>3.517573406734413</v>
+        <v>4.212508199701934</v>
       </c>
       <c r="E5">
-        <v>13.16920425839003</v>
+        <v>7.09996916691326</v>
       </c>
       <c r="F5">
-        <v>75.34964758521664</v>
+        <v>63.67456291152707</v>
       </c>
       <c r="G5">
-        <v>3.89452709535095</v>
+        <v>2.202863574614311</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.142553537913</v>
+        <v>8.131359249484019</v>
       </c>
       <c r="K5">
-        <v>31.3605897277458</v>
+        <v>22.26273328846267</v>
       </c>
       <c r="L5">
-        <v>9.183758915549078</v>
+        <v>4.74061527044358</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>13.07012611694119</v>
+        <v>8.496216762455868</v>
       </c>
       <c r="D6">
-        <v>3.515194493927039</v>
+        <v>4.206568757496401</v>
       </c>
       <c r="E6">
-        <v>13.17114269072114</v>
+        <v>7.099576709275899</v>
       </c>
       <c r="F6">
-        <v>75.33112319659654</v>
+        <v>63.56354242512623</v>
       </c>
       <c r="G6">
-        <v>3.894781979342082</v>
+        <v>2.203601503278497</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.14344872644542</v>
+        <v>8.129306489948563</v>
       </c>
       <c r="K6">
-        <v>31.35920859793114</v>
+        <v>22.2123880189172</v>
       </c>
       <c r="L6">
-        <v>9.184985066385979</v>
+        <v>4.743427655608736</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>13.06748448740192</v>
+        <v>8.577091026188768</v>
       </c>
       <c r="D7">
-        <v>3.53163845982154</v>
+        <v>4.24784027559655</v>
       </c>
       <c r="E7">
-        <v>13.15789372108436</v>
+        <v>7.102773404483139</v>
       </c>
       <c r="F7">
-        <v>75.4606953279562</v>
+        <v>64.33550503731163</v>
       </c>
       <c r="G7">
-        <v>3.893028211131221</v>
+        <v>2.198494653678682</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>13.13738323334032</v>
+        <v>8.143958282868548</v>
       </c>
       <c r="K7">
-        <v>31.36970918926045</v>
+        <v>22.56216270772034</v>
       </c>
       <c r="L7">
-        <v>9.176556155901169</v>
+        <v>4.724004867459719</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>13.06274604471843</v>
+        <v>8.945737737342647</v>
       </c>
       <c r="D8">
-        <v>3.60248763727524</v>
+        <v>4.431448937575135</v>
       </c>
       <c r="E8">
-        <v>13.10452250575586</v>
+        <v>7.128972991204775</v>
       </c>
       <c r="F8">
-        <v>76.05674660626244</v>
+        <v>67.77603945342703</v>
       </c>
       <c r="G8">
-        <v>3.885668981960449</v>
+        <v>2.176283265157875</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.11428757892843</v>
+        <v>8.219065589785473</v>
       </c>
       <c r="K8">
-        <v>31.43863550336361</v>
+        <v>24.11221423555864</v>
       </c>
       <c r="L8">
-        <v>9.141381119529832</v>
+        <v>4.640563474037332</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>13.07837255258504</v>
+        <v>9.71223183134769</v>
       </c>
       <c r="D9">
-        <v>3.735033711727678</v>
+        <v>4.801130122502522</v>
       </c>
       <c r="E9">
-        <v>13.01816326036257</v>
+        <v>7.228066806362824</v>
       </c>
       <c r="F9">
-        <v>77.30980883611255</v>
+        <v>74.66331121363565</v>
       </c>
       <c r="G9">
-        <v>3.872588558846667</v>
+        <v>2.133307808298748</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>13.08223912938144</v>
+        <v>8.409005361738862</v>
       </c>
       <c r="K9">
-        <v>31.65450765010221</v>
+        <v>27.1705004806864</v>
       </c>
       <c r="L9">
-        <v>9.079594285834306</v>
+        <v>4.483250038893889</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>13.1050633227541</v>
+        <v>10.30555209995951</v>
       </c>
       <c r="D10">
-        <v>3.828330535261768</v>
+        <v>5.083909644277802</v>
       </c>
       <c r="E10">
-        <v>12.96586813488159</v>
+        <v>7.334651564920044</v>
       </c>
       <c r="F10">
-        <v>78.27870304998308</v>
+        <v>79.84925969962818</v>
       </c>
       <c r="G10">
-        <v>3.86378874871367</v>
+        <v>2.101399604434474</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.06681314207211</v>
+        <v>8.580283740918587</v>
       </c>
       <c r="K10">
-        <v>31.8616469017022</v>
+        <v>29.43710076972703</v>
       </c>
       <c r="L10">
-        <v>9.038519312312836</v>
+        <v>4.369383847787775</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>13.12050375988957</v>
+        <v>10.58357155039857</v>
       </c>
       <c r="D11">
-        <v>3.869848694437065</v>
+        <v>5.216564980173002</v>
       </c>
       <c r="E11">
-        <v>12.94449871272491</v>
+        <v>7.391747305240239</v>
       </c>
       <c r="F11">
-        <v>78.72922663195736</v>
+        <v>82.25153657336173</v>
       </c>
       <c r="G11">
-        <v>3.85995860180809</v>
+        <v>2.086614208679539</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.06156828158572</v>
+        <v>8.666674071190855</v>
       </c>
       <c r="K11">
-        <v>31.9662211122077</v>
+        <v>30.61968695019117</v>
       </c>
       <c r="L11">
-        <v>9.020757518118891</v>
+        <v>4.31734962193175</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.12682380226268</v>
+        <v>10.6902175480176</v>
       </c>
       <c r="D12">
-        <v>3.885434669619085</v>
+        <v>5.267549669465636</v>
       </c>
       <c r="E12">
-        <v>12.93675459206538</v>
+        <v>7.414737464682387</v>
       </c>
       <c r="F12">
-        <v>78.90116509074612</v>
+        <v>83.16936049762886</v>
       </c>
       <c r="G12">
-        <v>3.858532868959269</v>
+        <v>2.080955506643746</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>13.05983777947897</v>
+        <v>8.700771841001167</v>
       </c>
       <c r="K12">
-        <v>32.00728735274014</v>
+        <v>31.08306331689472</v>
       </c>
       <c r="L12">
-        <v>9.014163298518332</v>
+        <v>4.29754765203909</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.12544165227967</v>
+        <v>10.66718471511857</v>
       </c>
       <c r="D13">
-        <v>3.882084053199524</v>
+        <v>5.256532572265566</v>
       </c>
       <c r="E13">
-        <v>12.93840694834511</v>
+        <v>7.409722840101121</v>
       </c>
       <c r="F13">
-        <v>78.86407683575189</v>
+        <v>82.97129145212682</v>
       </c>
       <c r="G13">
-        <v>3.85883883254319</v>
+        <v>2.082177254135629</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>13.06019909437904</v>
+        <v>8.693363724514155</v>
       </c>
       <c r="K13">
-        <v>31.9983781584561</v>
+        <v>30.98329313840715</v>
       </c>
       <c r="L13">
-        <v>9.015577636364721</v>
+        <v>4.301817877684983</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.12101424105609</v>
+        <v>10.5923166042774</v>
       </c>
       <c r="D14">
-        <v>3.871133707137484</v>
+        <v>5.2207433221129</v>
       </c>
       <c r="E14">
-        <v>12.9438546243027</v>
+        <v>7.393610428959476</v>
       </c>
       <c r="F14">
-        <v>78.7433457677533</v>
+        <v>82.32687020421724</v>
       </c>
       <c r="G14">
-        <v>3.859840812858287</v>
+        <v>2.086149999278361</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.0614207852206</v>
+        <v>8.66945051274017</v>
       </c>
       <c r="K14">
-        <v>31.96957040216479</v>
+        <v>30.65782273250979</v>
       </c>
       <c r="L14">
-        <v>9.020212372234344</v>
+        <v>4.315722877040788</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>13.11836388841023</v>
+        <v>10.54664275862247</v>
       </c>
       <c r="D15">
-        <v>3.864408490179201</v>
+        <v>5.198925053477997</v>
       </c>
       <c r="E15">
-        <v>12.94723680609975</v>
+        <v>7.383923781901489</v>
       </c>
       <c r="F15">
-        <v>78.66956623337711</v>
+        <v>81.9332706726364</v>
       </c>
       <c r="G15">
-        <v>3.860457760136144</v>
+        <v>2.088574930977596</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.06220241551962</v>
+        <v>8.654988668762268</v>
       </c>
       <c r="K15">
-        <v>31.9521150909693</v>
+        <v>30.45836598973031</v>
       </c>
       <c r="L15">
-        <v>9.023068414591478</v>
+        <v>4.324225228143129</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>13.10412053383895</v>
+        <v>10.28756162154243</v>
       </c>
       <c r="D16">
-        <v>3.825598365066702</v>
+        <v>5.075335017035135</v>
       </c>
       <c r="E16">
-        <v>12.96731337465447</v>
+        <v>7.331104097062233</v>
       </c>
       <c r="F16">
-        <v>78.2494509484946</v>
+        <v>79.69328484080201</v>
       </c>
       <c r="G16">
-        <v>3.864042519985539</v>
+        <v>2.102358741732744</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.06719163640393</v>
+        <v>8.574821793093633</v>
       </c>
       <c r="K16">
-        <v>31.85501913648792</v>
+        <v>29.36933959086181</v>
       </c>
       <c r="L16">
-        <v>9.03969858335306</v>
+        <v>4.37277451272464</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>13.09622680876096</v>
+        <v>10.13082274707873</v>
       </c>
       <c r="D17">
-        <v>3.80155079219905</v>
+        <v>5.000656139312054</v>
       </c>
       <c r="E17">
-        <v>12.98024952012209</v>
+        <v>7.300991528427944</v>
       </c>
       <c r="F17">
-        <v>77.99417713676957</v>
+        <v>78.3313679152058</v>
       </c>
       <c r="G17">
-        <v>3.866285798967959</v>
+        <v>2.110731955031709</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>13.07070687132839</v>
+        <v>8.527919640926653</v>
       </c>
       <c r="K17">
-        <v>31.79808922028671</v>
+        <v>28.77662981113328</v>
       </c>
       <c r="L17">
-        <v>9.050136450739169</v>
+        <v>4.402456232212843</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>13.09199713713487</v>
+        <v>10.0414189842616</v>
       </c>
       <c r="D18">
-        <v>3.787632573848172</v>
+        <v>4.958068461596254</v>
       </c>
       <c r="E18">
-        <v>12.98791781865298</v>
+        <v>7.284472801165352</v>
       </c>
       <c r="F18">
-        <v>77.84827424944537</v>
+        <v>77.55194494437498</v>
       </c>
       <c r="G18">
-        <v>3.867592363167665</v>
+        <v>2.115524062559671</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>13.072895536058</v>
+        <v>8.501728857536522</v>
       </c>
       <c r="K18">
-        <v>31.76631985553207</v>
+        <v>28.43656180033233</v>
       </c>
       <c r="L18">
-        <v>9.056227012126056</v>
+        <v>4.419510683921776</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>13.09061841836241</v>
+        <v>10.01127196012163</v>
       </c>
       <c r="D19">
-        <v>3.782905318632811</v>
+        <v>4.943707184651302</v>
       </c>
       <c r="E19">
-        <v>12.99055329119515</v>
+        <v>7.279013870849103</v>
       </c>
       <c r="F19">
-        <v>77.79903478960317</v>
+        <v>77.2886691128318</v>
       </c>
       <c r="G19">
-        <v>3.868037547367574</v>
+        <v>2.117143040923368</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>13.07366520464232</v>
+        <v>8.492991635305067</v>
       </c>
       <c r="K19">
-        <v>31.75573139979746</v>
+        <v>28.32154772227156</v>
       </c>
       <c r="L19">
-        <v>9.058304140260432</v>
+        <v>4.425283719082948</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>13.09703497210311</v>
+        <v>10.14742920004783</v>
       </c>
       <c r="D20">
-        <v>3.804119694017928</v>
+        <v>5.008566868227375</v>
       </c>
       <c r="E20">
-        <v>12.97884887176218</v>
+        <v>7.304113271519415</v>
       </c>
       <c r="F20">
-        <v>78.02125635032495</v>
+        <v>78.47592900163281</v>
       </c>
       <c r="G20">
-        <v>3.866045313688475</v>
+        <v>2.109843227358296</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>13.07031540057378</v>
+        <v>8.532830010905325</v>
       </c>
       <c r="K20">
-        <v>31.80404872291805</v>
+        <v>28.83963316840733</v>
       </c>
       <c r="L20">
-        <v>9.049016327487253</v>
+        <v>4.399298812271837</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>13.12230185192189</v>
+        <v>10.61426816196559</v>
       </c>
       <c r="D21">
-        <v>3.87435380732353</v>
+        <v>5.231233512776275</v>
       </c>
       <c r="E21">
-        <v>12.94224506448859</v>
+        <v>7.398304692450809</v>
       </c>
       <c r="F21">
-        <v>78.7787717488348</v>
+        <v>82.5159131093429</v>
       </c>
       <c r="G21">
-        <v>3.859545839317395</v>
+        <v>2.084984921274438</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>13.06105500210822</v>
+        <v>8.676435358778308</v>
       </c>
       <c r="K21">
-        <v>31.97799232780406</v>
+        <v>30.75343936226328</v>
       </c>
       <c r="L21">
-        <v>9.018847469279814</v>
+        <v>4.311641873593938</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.14157181969496</v>
+        <v>10.92748555213152</v>
       </c>
       <c r="D22">
-        <v>3.91946142002311</v>
+        <v>5.381250978730712</v>
       </c>
       <c r="E22">
-        <v>12.92035087707505</v>
+        <v>7.467927630145729</v>
       </c>
       <c r="F22">
-        <v>79.2815987153362</v>
+        <v>85.20506906184372</v>
       </c>
       <c r="G22">
-        <v>3.855441701960193</v>
+        <v>2.068376579746672</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>13.05649301692967</v>
+        <v>8.778459298195138</v>
       </c>
       <c r="K22">
-        <v>32.10020932115278</v>
+        <v>32.10156502534171</v>
       </c>
       <c r="L22">
-        <v>8.999898064841522</v>
+        <v>4.253742551576621</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.131035375886</v>
+        <v>10.75948765404805</v>
       </c>
       <c r="D23">
-        <v>3.895460387672516</v>
+        <v>5.300703497079684</v>
       </c>
       <c r="E23">
-        <v>12.93185059600038</v>
+        <v>7.429979822023889</v>
       </c>
       <c r="F23">
-        <v>79.01254542755618</v>
+        <v>83.76454157868623</v>
       </c>
       <c r="G23">
-        <v>3.857619082206933</v>
+        <v>2.077282134869404</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>13.05879124691539</v>
+        <v>8.723195252704992</v>
       </c>
       <c r="K23">
-        <v>32.03420659346747</v>
+        <v>31.38212931793483</v>
       </c>
       <c r="L23">
-        <v>9.009941805205305</v>
+        <v>4.284725385991439</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>13.09666864034471</v>
+        <v>10.13991923297128</v>
       </c>
       <c r="D24">
-        <v>3.80295858276552</v>
+        <v>5.004989361819519</v>
       </c>
       <c r="E24">
-        <v>12.9794813849511</v>
+        <v>7.302699469764484</v>
       </c>
       <c r="F24">
-        <v>78.00901116192482</v>
+        <v>78.41056197891504</v>
       </c>
       <c r="G24">
-        <v>3.866153984511685</v>
+        <v>2.11024508741512</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>13.07049186218049</v>
+        <v>8.530607634109733</v>
       </c>
       <c r="K24">
-        <v>31.80135143874587</v>
+        <v>28.81114725583155</v>
       </c>
       <c r="L24">
-        <v>9.049522455762059</v>
+        <v>4.400726308239435</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>13.07147380743333</v>
+        <v>9.499950952556281</v>
       </c>
       <c r="D25">
-        <v>3.69988042661816</v>
+        <v>4.699608976766933</v>
       </c>
       <c r="E25">
-        <v>13.0395668315569</v>
+        <v>7.195705022523589</v>
       </c>
       <c r="F25">
-        <v>76.96210747347912</v>
+        <v>72.7820073245835</v>
       </c>
       <c r="G25">
-        <v>3.875983891998546</v>
+        <v>2.144935369850522</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>13.08948641723871</v>
+        <v>8.352515256716474</v>
       </c>
       <c r="K25">
-        <v>31.58752571443546</v>
+        <v>26.3408488940794</v>
       </c>
       <c r="L25">
-        <v>9.095546025670108</v>
+        <v>4.525330390772157</v>
       </c>
       <c r="M25">
         <v>0</v>
